--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7668363135393</v>
+        <v>36.899643</v>
       </c>
       <c r="H2">
-        <v>11.7668363135393</v>
+        <v>110.698929</v>
       </c>
       <c r="I2">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="J2">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.86186882418422</v>
+        <v>23.746319</v>
       </c>
       <c r="N2">
-        <v>4.86186882418422</v>
+        <v>71.238957</v>
       </c>
       <c r="O2">
-        <v>0.5247819451368438</v>
+        <v>0.7135031414879517</v>
       </c>
       <c r="P2">
-        <v>0.5247819451368438</v>
+        <v>0.7135031414879517</v>
       </c>
       <c r="Q2">
-        <v>57.2088146320755</v>
+        <v>876.230693664117</v>
       </c>
       <c r="R2">
-        <v>57.2088146320755</v>
+        <v>7886.076242977052</v>
       </c>
       <c r="S2">
-        <v>0.2613144861816266</v>
+        <v>0.51650104590601</v>
       </c>
       <c r="T2">
-        <v>0.2613144861816266</v>
+        <v>0.51650104590601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.7668363135393</v>
+        <v>36.899643</v>
       </c>
       <c r="H3">
-        <v>11.7668363135393</v>
+        <v>110.698929</v>
       </c>
       <c r="I3">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="J3">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.40268166052505</v>
+        <v>4.865208333333334</v>
       </c>
       <c r="N3">
-        <v>4.40268166052505</v>
+        <v>14.595625</v>
       </c>
       <c r="O3">
-        <v>0.4752180548631562</v>
+        <v>0.1461844014571983</v>
       </c>
       <c r="P3">
-        <v>0.4752180548631562</v>
+        <v>0.1461844014571983</v>
       </c>
       <c r="Q3">
-        <v>51.80563444001967</v>
+        <v>179.524450620625</v>
       </c>
       <c r="R3">
-        <v>51.80563444001967</v>
+        <v>1615.720055585625</v>
       </c>
       <c r="S3">
-        <v>0.2366342115646067</v>
+        <v>0.1058220936355358</v>
       </c>
       <c r="T3">
-        <v>0.2366342115646067</v>
+        <v>0.1058220936355358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.26149754195757</v>
+        <v>36.899643</v>
       </c>
       <c r="H4">
-        <v>3.26149754195757</v>
+        <v>110.698929</v>
       </c>
       <c r="I4">
-        <v>0.1380199749912063</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="J4">
-        <v>0.1380199749912063</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.86186882418422</v>
+        <v>4.669782333333333</v>
       </c>
       <c r="N4">
-        <v>4.86186882418422</v>
+        <v>14.009347</v>
       </c>
       <c r="O4">
-        <v>0.5247819451368438</v>
+        <v>0.1403124570548501</v>
       </c>
       <c r="P4">
-        <v>0.5247819451368438</v>
+        <v>0.1403124570548501</v>
       </c>
       <c r="Q4">
-        <v>15.85697321939697</v>
+        <v>172.313300987707</v>
       </c>
       <c r="R4">
-        <v>15.85697321939697</v>
+        <v>1550.819708889363</v>
       </c>
       <c r="S4">
-        <v>0.0724303909436238</v>
+        <v>0.1015714249993894</v>
       </c>
       <c r="T4">
-        <v>0.0724303909436238</v>
+        <v>0.1015714249993894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.26149754195757</v>
+        <v>3.374819</v>
       </c>
       <c r="H5">
-        <v>3.26149754195757</v>
+        <v>10.124457</v>
       </c>
       <c r="I5">
-        <v>0.1380199749912063</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="J5">
-        <v>0.1380199749912063</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.40268166052505</v>
+        <v>23.746319</v>
       </c>
       <c r="N5">
-        <v>4.40268166052505</v>
+        <v>71.238957</v>
       </c>
       <c r="O5">
-        <v>0.4752180548631562</v>
+        <v>0.7135031414879517</v>
       </c>
       <c r="P5">
-        <v>0.4752180548631562</v>
+        <v>0.7135031414879517</v>
       </c>
       <c r="Q5">
-        <v>14.35933541382412</v>
+        <v>80.139528541261</v>
       </c>
       <c r="R5">
-        <v>14.35933541382412</v>
+        <v>721.2557568713489</v>
       </c>
       <c r="S5">
-        <v>0.06558958404758253</v>
+        <v>0.04723887283254949</v>
       </c>
       <c r="T5">
-        <v>0.06558958404758253</v>
+        <v>0.04723887283254949</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.60228585853633</v>
+        <v>3.374819</v>
       </c>
       <c r="H6">
-        <v>8.60228585853633</v>
+        <v>10.124457</v>
       </c>
       <c r="I6">
-        <v>0.3640313272625603</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="J6">
-        <v>0.3640313272625603</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.86186882418422</v>
+        <v>4.865208333333334</v>
       </c>
       <c r="N6">
-        <v>4.86186882418422</v>
+        <v>14.595625</v>
       </c>
       <c r="O6">
-        <v>0.5247819451368438</v>
+        <v>0.1461844014571983</v>
       </c>
       <c r="P6">
-        <v>0.5247819451368438</v>
+        <v>0.1461844014571983</v>
       </c>
       <c r="Q6">
-        <v>41.82318543233857</v>
+        <v>16.41919752229167</v>
       </c>
       <c r="R6">
-        <v>41.82318543233857</v>
+        <v>147.772777700625</v>
       </c>
       <c r="S6">
-        <v>0.1910370680115934</v>
+        <v>0.009678424591289009</v>
       </c>
       <c r="T6">
-        <v>0.1910370680115934</v>
+        <v>0.009678424591289007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.60228585853633</v>
+        <v>3.374819</v>
       </c>
       <c r="H7">
-        <v>8.60228585853633</v>
+        <v>10.124457</v>
       </c>
       <c r="I7">
-        <v>0.3640313272625603</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="J7">
-        <v>0.3640313272625603</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.40268166052505</v>
+        <v>4.669782333333333</v>
       </c>
       <c r="N7">
-        <v>4.40268166052505</v>
+        <v>14.009347</v>
       </c>
       <c r="O7">
-        <v>0.4752180548631562</v>
+        <v>0.1403124570548501</v>
       </c>
       <c r="P7">
-        <v>0.4752180548631562</v>
+        <v>0.1403124570548501</v>
       </c>
       <c r="Q7">
-        <v>37.87312618797188</v>
+        <v>15.75967014439767</v>
       </c>
       <c r="R7">
-        <v>37.87312618797188</v>
+        <v>141.837031299579</v>
       </c>
       <c r="S7">
-        <v>0.172994259250967</v>
+        <v>0.009289661012303404</v>
       </c>
       <c r="T7">
-        <v>0.172994259250967</v>
+        <v>0.009289661012303404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10.699319</v>
+      </c>
+      <c r="H8">
+        <v>32.097957</v>
+      </c>
+      <c r="I8">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="J8">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>23.746319</v>
+      </c>
+      <c r="N8">
+        <v>71.238957</v>
+      </c>
+      <c r="O8">
+        <v>0.7135031414879517</v>
+      </c>
+      <c r="P8">
+        <v>0.7135031414879517</v>
+      </c>
+      <c r="Q8">
+        <v>254.069442056761</v>
+      </c>
+      <c r="R8">
+        <v>2286.624978510849</v>
+      </c>
+      <c r="S8">
+        <v>0.1497632227493921</v>
+      </c>
+      <c r="T8">
+        <v>0.1497632227493921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.699319</v>
+      </c>
+      <c r="H9">
+        <v>32.097957</v>
+      </c>
+      <c r="I9">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="J9">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.865208333333334</v>
+      </c>
+      <c r="N9">
+        <v>14.595625</v>
+      </c>
+      <c r="O9">
+        <v>0.1461844014571983</v>
+      </c>
+      <c r="P9">
+        <v>0.1461844014571983</v>
+      </c>
+      <c r="Q9">
+        <v>52.05441595979168</v>
+      </c>
+      <c r="R9">
+        <v>468.489743638125</v>
+      </c>
+      <c r="S9">
+        <v>0.03068388323037347</v>
+      </c>
+      <c r="T9">
+        <v>0.03068388323037346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.699319</v>
+      </c>
+      <c r="H10">
+        <v>32.097957</v>
+      </c>
+      <c r="I10">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="J10">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.669782333333333</v>
+      </c>
+      <c r="N10">
+        <v>14.009347</v>
+      </c>
+      <c r="O10">
+        <v>0.1403124570548501</v>
+      </c>
+      <c r="P10">
+        <v>0.1403124570548501</v>
+      </c>
+      <c r="Q10">
+        <v>49.96349084489767</v>
+      </c>
+      <c r="R10">
+        <v>449.671417604079</v>
+      </c>
+      <c r="S10">
+        <v>0.02945137104315729</v>
+      </c>
+      <c r="T10">
+        <v>0.02945137104315729</v>
       </c>
     </row>
   </sheetData>
